--- a/reverseprimer-v3_29.xlsx
+++ b/reverseprimer-v3_29.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_29" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R2689-TGAGGACGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAGGACGTAGTCTCGTGGGCTCGG</t>
+    <t>R2689-TGTCAAGTGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTCAAGTGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R2690-ACTTGACCTG</t>
+    <t>R2690-AAGTCGTACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGTCGTACCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>R2691-ACTTGACCTG</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATACTTGACCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>R2691-AAGGAAGTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGGAAGTGAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R2692-CGTCAACAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTCAACAAGGTCTCGTGGGCTCGG</t>
+    <t>R2692-GTGATGCTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGATGCTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R2693-GTCTAGGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCTAGGAAGGTCTCGTGGGCTCGG</t>
+    <t>R2693-CTGTGCTTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGTGCTTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R2694-AGTGGTAGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTGGTAGTGGTCTCGTGGGCTCGG</t>
+    <t>R2694-ACTGCATGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGCATGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R2695-AACGTCACGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACGTCACGAGTCTCGTGGGCTCGG</t>
+    <t>R2695-AAGCTACTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGCTACTCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>R2696-AAGTGTGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGTGTGACTGTCTCGTGGGCTCGG</t>
+    <t>R2696-AGCATGGATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCATGGATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>R2697-CACTCTGTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACTCTGTCAGTCTCGTGGGCTCGG</t>
+    <t>R2697-ATCTCCAGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCTCCAGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>R2698-AGAACTGGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAACTGGTAGTCTCGTGGGCTCGG</t>
+    <t>R2698-CCACTGTGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCACTGTGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>R2699-ATCAAGGTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCAAGGTCTGTCTCGTGGGCTCGG</t>
+    <t>R2699-ACGAGTTCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGAGTTCAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>R2700-CATCACTCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCACTCTTGTCTCGTGGGCTCGG</t>
+    <t>R2700-TGTCTCAACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTCTCAACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>R2701-CATCTCTTGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCTCTTGGGTCTCGTGGGCTCGG</t>
+    <t>R2701-CATGTCTCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATGTCTCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>R2702-CGAAGGAGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGAAGGAGTTGTCTCGTGGGCTCGG</t>
+    <t>R2702-TCCACAGAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCACAGAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>R2703-CCTACAACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTACAACACGTCTCGTGGGCTCGG</t>
+    <t>R2703-AGAGACAGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGACAGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>R2704-TCTCAGAGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCAGAGAGGTCTCGTGGGCTCGG</t>
+    <t>R2704-CAGTGAACCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGTGAACCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>R2705-TCCTAGTCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCTAGTCTTGTCTCGTGGGCTCGG</t>
+    <t>R2705-AAGCAGAAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGCAGAAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>R2706-ACACATGATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACATGATGGTCTCGTGGGCTCGG</t>
+    <t>R2706-TGATGTCACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGATGTCACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>R2707-GAGACATCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGACATCAGGTCTCGTGGGCTCGG</t>
+    <t>R2707-CATGGTGGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATGGTGGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>R2708-ACTACCATGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTACCATGCGTCTCGTGGGCTCGG</t>
+    <t>R2708-AACAACTCCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACAACTCCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>R2709-AACCACTGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCACTGAGGTCTCGTGGGCTCGG</t>
+    <t>R2709-CTCTCGTGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCTCGTGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>R2710-GTGCAACAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGCAACAACGTCTCGTGGGCTCGG</t>
+    <t>R2710-TTCATGTCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCATGTCAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>R2711-TGACTACCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACTACCAGGTCTCGTGGGCTCGG</t>
+    <t>R2711-TAGCACATGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGCACATGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>R2712-AACAGTCGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACAGTCGACGTCTCGTGGGCTCGG</t>
+    <t>R2712-AGCAAGTTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCAAGTTCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>R2713-ACAAGTGTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAAGTGTGTGTCTCGTGGGCTCGG</t>
+    <t>R2713-GCTGTGTAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTGTGTAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>R2714-TCACTGATCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACTGATCGGTCTCGTGGGCTCGG</t>
+    <t>R2714-ACTCTTCGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCTTCGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>R2715-TTCTCTGAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCTCTGAGAGTCTCGTGGGCTCGG</t>
+    <t>R2715-GTCTACTCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCTACTCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>R2716-TGAACCTACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAACCTACCGTCTCGTGGGCTCGG</t>
+    <t>R2716-TCTTGGATGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTTGGATGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>R2717-TCCTAGATCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCTAGATCCGTCTCGTGGGCTCGG</t>
+    <t>R2717-ACATCTTGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACATCTTGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>R2718-TAGTCGAACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGTCGAACTGTCTCGTGGGCTCGG</t>
+    <t>R2718-TTCTCCTGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCTCCTGCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>R2719-GTTGACTGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTGACTGTTGTCTCGTGGGCTCGG</t>
+    <t>R2719-ACTTGAGGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTTGAGGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>R2720-GTGTCTTCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGTCTTCATGTCTCGTGGGCTCGG</t>
+    <t>R2720-CAGGTTCCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGGTTCCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>R2721-AGAAGTCATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAAGTCATGGTCTCGTGGGCTCGG</t>
+    <t>R2721-AGCTACATGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCTACATGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>R2722-TCTCAGATCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCAGATCTGTCTCGTGGGCTCGG</t>
+    <t>R2722-GACATGCAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACATGCAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>R2723-AAGTGTCGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGTGTCGAGGTCTCGTGGGCTCGG</t>
+    <t>R2723-CTGGATGGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGGATGGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>R2724-ACGAGAGGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGAGAGGATGTCTCGTGGGCTCGG</t>
+    <t>R2724-TCAGGTCTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAGGTCTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>R2725-AACACCAGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACACCAGTGGTCTCGTGGGCTCGG</t>
+    <t>R2725-AGGTCTCGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGTCTCGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>R2726-AACGTTGGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACGTTGGTGGTCTCGTGGGCTCGG</t>
+    <t>R2726-GTGAACATGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGAACATGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>R2727-GAGACGATGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGACGATGAGTCTCGTGGGCTCGG</t>
+    <t>R2727-ACTCTGACTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCTGACTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>R2728-ATCTAGTACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCTAGTACCGTCTCGTGGGCTCGG</t>
+    <t>R2728-GATGTGAACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGTGAACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>R2729-TGACTACAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACTACAGTGTCTCGTGGGCTCGG</t>
+    <t>R2729-ATGCTTGAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGCTTGAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>R2730-TCAACGAGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAACGAGAAGTCTCGTGGGCTCGG</t>
+    <t>R2730-GAAGCATCCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGCATCCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>R2731-AGCAGAACAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCAGAACAAGTCTCGTGGGCTCGG</t>
+    <t>R2731-AGAGAACCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGAACCACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>R2732-AACAGAGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACAGAGAACGTCTCGTGGGCTCGG</t>
+    <t>R2732-GTCGATCACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCGATCACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>R2733-GACTTCGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACTTCGTTGGTCTCGTGGGCTCGG</t>
+    <t>R2733-GTACGACAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACGACAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>R2734-ATCGAGTGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCGAGTGTCGTCTCGTGGGCTCGG</t>
+    <t>R2734-CTACCTTGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTACCTTGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>R2735-CATCCTACAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCCTACAGGTCTCGTGGGCTCGG</t>
+    <t>R2735-CAACATCTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACATCTCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>R2736-TAGTGGTGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGTGGTGCTGTCTCGTGGGCTCGG</t>
+    <t>R2736-ACAAGTCGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAAGTCGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>R2737-ACAGAGAGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGAGAGTGGTCTCGTGGGCTCGG</t>
+    <t>R2737-GCTGAGATCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTGAGATCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>R2738-TCCACTGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCCACTGAACGTCTCGTGGGCTCGG</t>
+    <t>R2738-GATGCTACAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGCTACACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>R2739-GAAGAGACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGAGACACGTCTCGTGGGCTCGG</t>
+    <t>R2739-AGTACACACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTACACACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>R2740-CTTCGACAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTCGACAGAGTCTCGTGGGCTCGG</t>
+    <t>R2740-GAACCTTGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACCTTGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>R2741-CATCTACGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCTACGAAGTCTCGTGGGCTCGG</t>
+    <t>R2741-AGACTGGAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACTGGAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>R2742-CACGAAGTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACGAAGTTCGTCTCGTGGGCTCGG</t>
+    <t>R2742-ACAACCTAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAACCTAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>R2743-GTGTGTGTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGTGTGTTCGTCTCGTGGGCTCGG</t>
+    <t>R2743-TTCGACAAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCGACAAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>R2744-ACTGACGTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTGACGTTCGTCTCGTGGGCTCGG</t>
+    <t>R2744-GAGTTCAACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGTTCAACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>R2745-ATCCTCGATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCCTCGATGGTCTCGTGGGCTCGG</t>
+    <t>R2745-GAGATCATCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGATCATCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>R2746-GAACTACTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACTACTGCGTCTCGTGGGCTCGG</t>
+    <t>R2746-CTGAGTTCCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGAGTTCCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>R2747-ACACCTACAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACCTACATGTCTCGTGGGCTCGG</t>
+    <t>R2747-TTCTCATCGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCTCATCGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>R2748-TTCTGTCAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCTGTCAACGTCTCGTGGGCTCGG</t>
+    <t>R2748-TCTCTCTAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCTCTAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>R2749-GATGGTGTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATGGTGTTCGTCTCGTGGGCTCGG</t>
+    <t>R2749-ACCAAGCTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCAAGCTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>R2750-AAGCTCAGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGCTCAGGAGTCTCGTGGGCTCGG</t>
+    <t>R2750-GTCTAGGTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCTAGGTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>R2751-TCGTGGACAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGTGGACATGTCTCGTGGGCTCGG</t>
+    <t>R2751-GACATCTGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACATCTGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>R2752-TCTGTTCGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTGTTCGTTGTCTCGTGGGCTCGG</t>
+    <t>R2752-ACGAGGTAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGAGGTAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>R2753-CTTCAAGAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTCAAGAGGGTCTCGTGGGCTCGG</t>
+    <t>R2753-GAGAGTGACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGAGTGACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>R2754-TGTCAAGTGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTCAAGTGGGTCTCGTGGGCTCGG</t>
+    <t>R2754-ACAGTGGTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAGTGGTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>R2755-CTCTTCCATC</t>
+    <t>R2755-TTGCAAGCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGCAAGCTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>R2756-TCTCCTCTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCCTCTTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>R2757-TCTCTCAGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCTCAGTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>R2758-TCCTACGAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCTACGAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>R2759-CCAGTGTCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCAGTGTCTAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>R2760-AGTGTTCAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTGTTCAGAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>R2761-ACTGAAGAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGAAGAACGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>R2762-TCATCCTACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCATCCTACAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>R2763-TTGTTGCTGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGTTGCTGGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>R2764-GTTGCATCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTGCATCTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>R2765-CTGCTTCTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGCTTCTTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>R2766-TCCAGAGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCAGAGAAGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>R2767-GACTGACTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACTGACTCAGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>R2768-CATCCAACTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCCAACTCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>R2769-GTGCAACTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGCAACTTGGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>R2770-AAGTCGTGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGTCGTGATGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>R2771-AGACATGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACATGACTGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>R2772-ACACACAACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACACAACCGTCTCGTGGGCTCGG</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>R2773-CTCTTCCATC</t>
   </si>
   <si>
     <t>CAAGCAGAAGACGGCATACGAGATCTCTTCCATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>R2756-ATCGTCTGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCGTCTGTGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>R2757-CAGGACACTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGGACACTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>R2758-TCAGTCGTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAGTCGTCTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>R2759-ACAACTCAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAACTCAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>R2760-ACAAGATGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAAGATGGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>R2761-ACACACAACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACACACAACCGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>R2762-GGAACCAAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGAACCAAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>R2763-ATGTGGAAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGTGGAAGGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>R2764-AGGAAGAAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGAAGAAGGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>R2765-AACTGAGTAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTGAGTAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>R2766-CATCCTAGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCCTAGGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>R2767-TGTGGACTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTGGACTCAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>R2768-CAACCAAGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACCAAGTTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
-    <t>R2769-GTCATCTACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCATCTACAGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>R2770-TCACCTGACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACCTGACTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>R2771-GCATGAGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCATGAGAGTGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>R2772-TGGTACCTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGTACCTACGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>R2773-TGGTTCGAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGTTCGAAGGTCTCGTGGGCTCGG</t>
-  </si>
-  <si>
     <t>H2</t>
   </si>
   <si>
-    <t>R2774-TACATCCACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACATCCACGGTCTCGTGGGCTCGG</t>
+    <t>R2774-AACTCTGCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTCTGCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>R2775-AGAGACCATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGACCATCGTCTCGTGGGCTCGG</t>
+    <t>R2775-ACTGAGAGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGAGAGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>R2776-AGGTCAGGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGTCAGGAAGTCTCGTGGGCTCGG</t>
+    <t>R2776-GGTTCACATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTTCACATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>R2777-ACTACGAGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTACGAGAGGTCTCGTGGGCTCGG</t>
+    <t>R2777-TGTGATCTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTGATCTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>R2778-TACGTTGCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACGTTGCAAGTCTCGTGGGCTCGG</t>
+    <t>R2778-GATGAACTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGAACTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>R2779-TTGAGACCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGAGACCTTGTCTCGTGGGCTCGG</t>
+    <t>R2779-CACTCCAGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACTCCAGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>R2780-TGCAAGTACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCAAGTACGGTCTCGTGGGCTCGG</t>
+    <t>R2780-ATCCTGAGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCCTGAGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R2781-GAAGCAGACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGCAGACAGTCTCGTGGGCTCGG</t>
+    <t>R2781-AGATCCTCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGATCCTCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R2782-ACAGTTCCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGTTCCTAGTCTCGTGGGCTCGG</t>
+    <t>R2782-TAGATCAGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGATCAGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R2783-CTGCAGAACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGCAGAACTGTCTCGTGGGCTCGG</t>
+    <t>R2783-GTCAACCTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCAACCTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R2784-ACTCCTTGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCCTTGCTGTCTCGTGGGCTCGG</t>
+    <t>R2784-TAGGTGTTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGGTGTTCAGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
